--- a/data/epsp/demo/2x(4+2).xlsx
+++ b/data/epsp/demo/2x(4+2).xlsx
@@ -19,16 +19,16 @@
     <t>Job</t>
   </si>
   <si>
-    <t>Start|0</t>
-  </si>
-  <si>
-    <t>Tank1|4</t>
-  </si>
-  <si>
-    <t>Tank2|5</t>
-  </si>
-  <si>
-    <t>End|9</t>
+    <t>S|0</t>
+  </si>
+  <si>
+    <t>T1|4</t>
+  </si>
+  <si>
+    <t>T2|5</t>
+  </si>
+  <si>
+    <t>E|9</t>
   </si>
   <si>
     <t>AGV1|3</t>
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
